--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.6715765</v>
+        <v>12.3701755</v>
       </c>
       <c r="H2">
-        <v>15.343153</v>
+        <v>24.740351</v>
       </c>
       <c r="I2">
-        <v>0.2438217746866767</v>
+        <v>0.2403828040872931</v>
       </c>
       <c r="J2">
-        <v>0.186760439442944</v>
+        <v>0.1846260626034365</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.5411105</v>
+        <v>3.513957</v>
       </c>
       <c r="N2">
-        <v>5.082221000000001</v>
+        <v>7.027914</v>
       </c>
       <c r="O2">
-        <v>0.1395356071449997</v>
+        <v>0.1635426476530525</v>
       </c>
       <c r="P2">
-        <v>0.1016036911443679</v>
+        <v>0.1210258252433203</v>
       </c>
       <c r="Q2">
-        <v>19.49432359570325</v>
+        <v>43.4682647894535</v>
       </c>
       <c r="R2">
-        <v>77.977294382813</v>
+        <v>173.873059157814</v>
       </c>
       <c r="S2">
-        <v>0.03402181936607675</v>
+        <v>0.03931284023070091</v>
       </c>
       <c r="T2">
-        <v>0.01897555000714731</v>
+        <v>0.02234452158800582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.6715765</v>
+        <v>12.3701755</v>
       </c>
       <c r="H3">
-        <v>15.343153</v>
+        <v>24.740351</v>
       </c>
       <c r="I3">
-        <v>0.2438217746866767</v>
+        <v>0.2403828040872931</v>
       </c>
       <c r="J3">
-        <v>0.186760439442944</v>
+        <v>0.1846260626034365</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>9.572723</v>
       </c>
       <c r="O3">
-        <v>0.1752167954175812</v>
+        <v>0.148507647709716</v>
       </c>
       <c r="P3">
-        <v>0.1913777443174129</v>
+        <v>0.1648492996500403</v>
       </c>
       <c r="Q3">
-        <v>24.47929226926983</v>
+        <v>39.47208784096217</v>
       </c>
       <c r="R3">
-        <v>146.875753615619</v>
+        <v>236.832527045773</v>
       </c>
       <c r="S3">
-        <v>0.04272167001362702</v>
+        <v>0.03569868478486939</v>
       </c>
       <c r="T3">
-        <v>0.03574179162831943</v>
+        <v>0.030435477117321</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.6715765</v>
+        <v>12.3701755</v>
       </c>
       <c r="H4">
-        <v>15.343153</v>
+        <v>24.740351</v>
       </c>
       <c r="I4">
-        <v>0.2438217746866767</v>
+        <v>0.2403828040872931</v>
       </c>
       <c r="J4">
-        <v>0.186760439442944</v>
+        <v>0.1846260626034365</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.948958666666666</v>
+        <v>5.402826333333334</v>
       </c>
       <c r="N4">
-        <v>14.846876</v>
+        <v>16.208479</v>
       </c>
       <c r="O4">
-        <v>0.271753610198707</v>
+        <v>0.2514522867988899</v>
       </c>
       <c r="P4">
-        <v>0.2968185373211294</v>
+        <v>0.2791218769771553</v>
       </c>
       <c r="Q4">
-        <v>37.96631500667133</v>
+        <v>66.83390993935484</v>
       </c>
       <c r="R4">
-        <v>227.797890040028</v>
+        <v>401.003459636129</v>
       </c>
       <c r="S4">
-        <v>0.0662594475161601</v>
+        <v>0.06044480579487937</v>
       </c>
       <c r="T4">
-        <v>0.05543396046490601</v>
+        <v>0.05153317313277297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.6715765</v>
+        <v>12.3701755</v>
       </c>
       <c r="H5">
-        <v>15.343153</v>
+        <v>24.740351</v>
       </c>
       <c r="I5">
-        <v>0.2438217746866767</v>
+        <v>0.2403828040872931</v>
       </c>
       <c r="J5">
-        <v>0.186760439442944</v>
+        <v>0.1846260626034365</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.072439</v>
+        <v>2.8759645</v>
       </c>
       <c r="N5">
-        <v>4.144878</v>
+        <v>5.751929</v>
       </c>
       <c r="O5">
-        <v>0.1138002594282996</v>
+        <v>0.1338499158886085</v>
       </c>
       <c r="P5">
-        <v>0.08286434299946524</v>
+        <v>0.09905242920815284</v>
       </c>
       <c r="Q5">
-        <v>15.8988743300835</v>
+        <v>35.57618559676975</v>
       </c>
       <c r="R5">
-        <v>63.595497320334</v>
+        <v>142.304742387079</v>
       </c>
       <c r="S5">
-        <v>0.02774698121361221</v>
+        <v>0.03217521810815204</v>
       </c>
       <c r="T5">
-        <v>0.01547578111273097</v>
+        <v>0.01828765999600689</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.6715765</v>
+        <v>12.3701755</v>
       </c>
       <c r="H6">
-        <v>15.343153</v>
+        <v>24.740351</v>
       </c>
       <c r="I6">
-        <v>0.2438217746866767</v>
+        <v>0.2403828040872931</v>
       </c>
       <c r="J6">
-        <v>0.186760439442944</v>
+        <v>0.1846260626034365</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.499473</v>
+        <v>2.422765</v>
       </c>
       <c r="N6">
-        <v>4.498419</v>
+        <v>7.268295</v>
       </c>
       <c r="O6">
-        <v>0.08233796816491613</v>
+        <v>0.1127576127827255</v>
       </c>
       <c r="P6">
-        <v>0.08993232972630591</v>
+        <v>0.1251653620813941</v>
       </c>
       <c r="Q6">
-        <v>11.5033218291845</v>
+        <v>29.9700282452575</v>
       </c>
       <c r="R6">
-        <v>69.019930975107</v>
+        <v>179.820169471545</v>
       </c>
       <c r="S6">
-        <v>0.02007578952206494</v>
+        <v>0.02710499114290075</v>
       </c>
       <c r="T6">
-        <v>0.01679580141981263</v>
+        <v>0.02310878797542127</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.6715765</v>
+        <v>12.3701755</v>
       </c>
       <c r="H7">
-        <v>15.343153</v>
+        <v>24.740351</v>
       </c>
       <c r="I7">
-        <v>0.2438217746866767</v>
+        <v>0.2403828040872931</v>
       </c>
       <c r="J7">
-        <v>0.186760439442944</v>
+        <v>0.1846260626034365</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.958308666666666</v>
+        <v>4.080066666666666</v>
       </c>
       <c r="N7">
-        <v>11.874926</v>
+        <v>12.2402</v>
       </c>
       <c r="O7">
-        <v>0.2173557596454965</v>
+        <v>0.1898898891670077</v>
       </c>
       <c r="P7">
-        <v>0.2374033544913186</v>
+        <v>0.2107852068399371</v>
       </c>
       <c r="Q7">
-        <v>30.36646774694633</v>
+        <v>50.47114071836666</v>
       </c>
       <c r="R7">
-        <v>182.198806481678</v>
+        <v>302.8268443102</v>
       </c>
       <c r="S7">
-        <v>0.0529960670551357</v>
+        <v>0.0456462640257906</v>
       </c>
       <c r="T7">
-        <v>0.04433755481002768</v>
+        <v>0.03891644279390853</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.172920999999999</v>
       </c>
       <c r="I8">
-        <v>0.09717941187536812</v>
+        <v>0.05941743972970084</v>
       </c>
       <c r="J8">
-        <v>0.1116549353927064</v>
+        <v>0.06845336538686848</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.5411105</v>
+        <v>3.513957</v>
       </c>
       <c r="N8">
-        <v>5.082221000000001</v>
+        <v>7.027914</v>
       </c>
       <c r="O8">
-        <v>0.1395356071449997</v>
+        <v>0.1635426476530525</v>
       </c>
       <c r="P8">
-        <v>0.1016036911443679</v>
+        <v>0.1210258252433203</v>
       </c>
       <c r="Q8">
-        <v>7.769801956256834</v>
+        <v>10.744416652799</v>
       </c>
       <c r="R8">
-        <v>46.618811737541</v>
+        <v>64.46649991679399</v>
       </c>
       <c r="S8">
-        <v>0.01355998823802348</v>
+        <v>0.009717285410160946</v>
       </c>
       <c r="T8">
-        <v>0.01134455357038489</v>
+        <v>0.008284625036628298</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.172920999999999</v>
       </c>
       <c r="I9">
-        <v>0.09717941187536812</v>
+        <v>0.05941743972970084</v>
       </c>
       <c r="J9">
-        <v>0.1116549353927064</v>
+        <v>0.06845336538686848</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>9.572723</v>
       </c>
       <c r="O9">
-        <v>0.1752167954175812</v>
+        <v>0.148507647709716</v>
       </c>
       <c r="P9">
-        <v>0.1913777443174129</v>
+        <v>0.1648492996500403</v>
       </c>
       <c r="Q9">
         <v>9.756647981542555</v>
@@ -1013,10 +1013,10 @@
         <v>87.80983183388298</v>
       </c>
       <c r="S9">
-        <v>0.01702746512936724</v>
+        <v>0.008823944207191695</v>
       </c>
       <c r="T9">
-        <v>0.02136826967736263</v>
+        <v>0.01128448934271358</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.172920999999999</v>
       </c>
       <c r="I10">
-        <v>0.09717941187536812</v>
+        <v>0.05941743972970084</v>
       </c>
       <c r="J10">
-        <v>0.1116549353927064</v>
+        <v>0.06845336538686848</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.948958666666666</v>
+        <v>5.402826333333334</v>
       </c>
       <c r="N10">
-        <v>14.846876</v>
+        <v>16.208479</v>
       </c>
       <c r="O10">
-        <v>0.271753610198707</v>
+        <v>0.2514522867988899</v>
       </c>
       <c r="P10">
-        <v>0.2968185373211294</v>
+        <v>0.2791218769771553</v>
       </c>
       <c r="Q10">
-        <v>15.13213562719955</v>
+        <v>16.51989971079544</v>
       </c>
       <c r="R10">
-        <v>136.189220644796</v>
+        <v>148.679097397159</v>
       </c>
       <c r="S10">
-        <v>0.02640885601411838</v>
+        <v>0.01494065109576849</v>
       </c>
       <c r="T10">
-        <v>0.03314125460794832</v>
+        <v>0.01910683183218577</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.172920999999999</v>
       </c>
       <c r="I11">
-        <v>0.09717941187536812</v>
+        <v>0.05941743972970084</v>
       </c>
       <c r="J11">
-        <v>0.1116549353927064</v>
+        <v>0.06845336538686848</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.072439</v>
+        <v>2.8759645</v>
       </c>
       <c r="N11">
-        <v>4.144878</v>
+        <v>5.751929</v>
       </c>
       <c r="O11">
-        <v>0.1138002594282996</v>
+        <v>0.1338499158886085</v>
       </c>
       <c r="P11">
-        <v>0.08286434299946524</v>
+        <v>0.09905242920815284</v>
       </c>
       <c r="Q11">
-        <v>6.336773074773</v>
+        <v>8.793665052434832</v>
       </c>
       <c r="R11">
-        <v>38.020638448638</v>
+        <v>52.76199031460899</v>
       </c>
       <c r="S11">
-        <v>0.01105904228250647</v>
+        <v>0.007953019310136925</v>
       </c>
       <c r="T11">
-        <v>0.009252212863964354</v>
+        <v>0.00678047212904261</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.172920999999999</v>
       </c>
       <c r="I12">
-        <v>0.09717941187536812</v>
+        <v>0.05941743972970084</v>
       </c>
       <c r="J12">
-        <v>0.1116549353927064</v>
+        <v>0.06845336538686848</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.499473</v>
+        <v>2.422765</v>
       </c>
       <c r="N12">
-        <v>4.498419</v>
+        <v>7.268295</v>
       </c>
       <c r="O12">
-        <v>0.08233796816491613</v>
+        <v>0.1127576127827255</v>
       </c>
       <c r="P12">
-        <v>0.08993232972630591</v>
+        <v>0.1251653620813941</v>
       </c>
       <c r="Q12">
-        <v>4.584849123544333</v>
+        <v>7.407943982188333</v>
       </c>
       <c r="R12">
-        <v>41.263642111899</v>
+        <v>66.671495839695</v>
       </c>
       <c r="S12">
-        <v>0.008001555321279333</v>
+        <v>0.006699768661582536</v>
       </c>
       <c r="T12">
-        <v>0.01004138846530626</v>
+        <v>0.008567990264337367</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.172920999999999</v>
       </c>
       <c r="I13">
-        <v>0.09717941187536812</v>
+        <v>0.05941743972970084</v>
       </c>
       <c r="J13">
-        <v>0.1116549353927064</v>
+        <v>0.06845336538686848</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.958308666666666</v>
+        <v>4.080066666666666</v>
       </c>
       <c r="N13">
-        <v>11.874926</v>
+        <v>12.2402</v>
       </c>
       <c r="O13">
-        <v>0.2173557596454965</v>
+        <v>0.1898898891670077</v>
       </c>
       <c r="P13">
-        <v>0.2374033544913186</v>
+        <v>0.2107852068399371</v>
       </c>
       <c r="Q13">
-        <v>12.10308423098289</v>
+        <v>12.47537640268889</v>
       </c>
       <c r="R13">
-        <v>108.927758078846</v>
+        <v>112.2783876242</v>
       </c>
       <c r="S13">
-        <v>0.02112250489007322</v>
+        <v>0.01128277104486025</v>
       </c>
       <c r="T13">
-        <v>0.02650725620773995</v>
+        <v>0.01442895678196086</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.249111</v>
+        <v>8.001792666666667</v>
       </c>
       <c r="H14">
-        <v>12.747333</v>
+        <v>24.005378</v>
       </c>
       <c r="I14">
-        <v>0.1350473119652368</v>
+        <v>0.1554944276205678</v>
       </c>
       <c r="J14">
-        <v>0.1551635125326289</v>
+        <v>0.1791412911420358</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.5411105</v>
+        <v>3.513957</v>
       </c>
       <c r="N14">
-        <v>5.082221000000001</v>
+        <v>7.027914</v>
       </c>
       <c r="O14">
-        <v>0.1395356071449997</v>
+        <v>0.1635426476530525</v>
       </c>
       <c r="P14">
-        <v>0.1016036911443679</v>
+        <v>0.1210258252433203</v>
       </c>
       <c r="Q14">
-        <v>10.7974605777655</v>
+        <v>28.117955353582</v>
       </c>
       <c r="R14">
-        <v>64.78476346659301</v>
+        <v>168.707732121492</v>
       </c>
       <c r="S14">
-        <v>0.0188439086683695</v>
+        <v>0.02542997038836359</v>
       </c>
       <c r="T14">
-        <v>0.01576518560424048</v>
+        <v>0.0216807225956188</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.249111</v>
+        <v>8.001792666666667</v>
       </c>
       <c r="H15">
-        <v>12.747333</v>
+        <v>24.005378</v>
       </c>
       <c r="I15">
-        <v>0.1350473119652368</v>
+        <v>0.1554944276205678</v>
       </c>
       <c r="J15">
-        <v>0.1551635125326289</v>
+        <v>0.1791412911420358</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>9.572723</v>
       </c>
       <c r="O15">
-        <v>0.1752167954175812</v>
+        <v>0.148507647709716</v>
       </c>
       <c r="P15">
-        <v>0.1913777443174129</v>
+        <v>0.1648492996500403</v>
       </c>
       <c r="Q15">
-        <v>13.55852086641767</v>
+        <v>25.53298156714377</v>
       </c>
       <c r="R15">
-        <v>122.026687797759</v>
+        <v>229.796834104294</v>
       </c>
       <c r="S15">
-        <v>0.02366255723230717</v>
+        <v>0.02309211167789922</v>
       </c>
       <c r="T15">
-        <v>0.02969484302886115</v>
+        <v>0.02953131638316857</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.249111</v>
+        <v>8.001792666666667</v>
       </c>
       <c r="H16">
-        <v>12.747333</v>
+        <v>24.005378</v>
       </c>
       <c r="I16">
-        <v>0.1350473119652368</v>
+        <v>0.1554944276205678</v>
       </c>
       <c r="J16">
-        <v>0.1551635125326289</v>
+        <v>0.1791412911420358</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.948958666666666</v>
+        <v>5.402826333333334</v>
       </c>
       <c r="N16">
-        <v>14.846876</v>
+        <v>16.208479</v>
       </c>
       <c r="O16">
-        <v>0.271753610198707</v>
+        <v>0.2514522867988899</v>
       </c>
       <c r="P16">
-        <v>0.2968185373211294</v>
+        <v>0.2791218769771553</v>
       </c>
       <c r="Q16">
-        <v>21.02867470907866</v>
+        <v>43.23229613334023</v>
       </c>
       <c r="R16">
-        <v>189.258072381708</v>
+        <v>389.090665200062</v>
       </c>
       <c r="S16">
-        <v>0.03669959457418414</v>
+        <v>0.03909942940967625</v>
       </c>
       <c r="T16">
-        <v>0.04605540683554363</v>
+        <v>0.05000225342767609</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.249111</v>
+        <v>8.001792666666667</v>
       </c>
       <c r="H17">
-        <v>12.747333</v>
+        <v>24.005378</v>
       </c>
       <c r="I17">
-        <v>0.1350473119652368</v>
+        <v>0.1554944276205678</v>
       </c>
       <c r="J17">
-        <v>0.1551635125326289</v>
+        <v>0.1791412911420358</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.072439</v>
+        <v>2.8759645</v>
       </c>
       <c r="N17">
-        <v>4.144878</v>
+        <v>5.751929</v>
       </c>
       <c r="O17">
-        <v>0.1138002594282996</v>
+        <v>0.1338499158886085</v>
       </c>
       <c r="P17">
-        <v>0.08286434299946524</v>
+        <v>0.09905242920815284</v>
       </c>
       <c r="Q17">
-        <v>8.806023351729001</v>
+        <v>23.01287164569366</v>
       </c>
       <c r="R17">
-        <v>52.83614011037401</v>
+        <v>138.077229874162</v>
       </c>
       <c r="S17">
-        <v>0.01536841913673845</v>
+        <v>0.02081291605816033</v>
       </c>
       <c r="T17">
-        <v>0.01285752252350558</v>
+        <v>0.0177443800591036</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.249111</v>
+        <v>8.001792666666667</v>
       </c>
       <c r="H18">
-        <v>12.747333</v>
+        <v>24.005378</v>
       </c>
       <c r="I18">
-        <v>0.1350473119652368</v>
+        <v>0.1554944276205678</v>
       </c>
       <c r="J18">
-        <v>0.1551635125326289</v>
+        <v>0.1791412911420358</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.499473</v>
+        <v>2.422765</v>
       </c>
       <c r="N18">
-        <v>4.498419</v>
+        <v>7.268295</v>
       </c>
       <c r="O18">
-        <v>0.08233796816491613</v>
+        <v>0.1127576127827255</v>
       </c>
       <c r="P18">
-        <v>0.08993232972630591</v>
+        <v>0.1251653620813941</v>
       </c>
       <c r="Q18">
-        <v>6.371427218503</v>
+        <v>19.38646321005667</v>
       </c>
       <c r="R18">
-        <v>57.342844966527</v>
+        <v>174.47816889051</v>
       </c>
       <c r="S18">
-        <v>0.01111952127335117</v>
+        <v>0.01753318045951152</v>
       </c>
       <c r="T18">
-        <v>0.01395421617057618</v>
+        <v>0.02242228456952136</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.249111</v>
+        <v>8.001792666666667</v>
       </c>
       <c r="H19">
-        <v>12.747333</v>
+        <v>24.005378</v>
       </c>
       <c r="I19">
-        <v>0.1350473119652368</v>
+        <v>0.1554944276205678</v>
       </c>
       <c r="J19">
-        <v>0.1551635125326289</v>
+        <v>0.1791412911420358</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.958308666666666</v>
+        <v>4.080066666666666</v>
       </c>
       <c r="N19">
-        <v>11.874926</v>
+        <v>12.2402</v>
       </c>
       <c r="O19">
-        <v>0.2173557596454965</v>
+        <v>0.1898898891670077</v>
       </c>
       <c r="P19">
-        <v>0.2374033544913186</v>
+        <v>0.2107852068399371</v>
       </c>
       <c r="Q19">
-        <v>16.81929289692867</v>
+        <v>32.64784753284444</v>
       </c>
       <c r="R19">
-        <v>151.373636072358</v>
+        <v>293.8306277956</v>
       </c>
       <c r="S19">
-        <v>0.0293533110802864</v>
+        <v>0.02952681962695693</v>
       </c>
       <c r="T19">
-        <v>0.03683633836990185</v>
+        <v>0.03776033410694741</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.56584</v>
+        <v>8.008293999999999</v>
       </c>
       <c r="H20">
-        <v>9.131679999999999</v>
+        <v>16.016588</v>
       </c>
       <c r="I20">
-        <v>0.1451137470551739</v>
+        <v>0.1556207644487699</v>
       </c>
       <c r="J20">
-        <v>0.1111529403149629</v>
+        <v>0.1195245604551629</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.5411105</v>
+        <v>3.513957</v>
       </c>
       <c r="N20">
-        <v>5.082221000000001</v>
+        <v>7.027914</v>
       </c>
       <c r="O20">
-        <v>0.1395356071449997</v>
+        <v>0.1635426476530525</v>
       </c>
       <c r="P20">
-        <v>0.1016036911443679</v>
+        <v>0.1210258252433203</v>
       </c>
       <c r="Q20">
-        <v>11.60230396532</v>
+        <v>28.140800759358</v>
       </c>
       <c r="R20">
-        <v>46.40921586128</v>
+        <v>112.563203037432</v>
       </c>
       <c r="S20">
-        <v>0.0202485348004296</v>
+        <v>0.02545063184774385</v>
       </c>
       <c r="T20">
-        <v>0.01129354901754984</v>
+        <v>0.01446555856593122</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.56584</v>
+        <v>8.008293999999999</v>
       </c>
       <c r="H21">
-        <v>9.131679999999999</v>
+        <v>16.016588</v>
       </c>
       <c r="I21">
-        <v>0.1451137470551739</v>
+        <v>0.1556207644487699</v>
       </c>
       <c r="J21">
-        <v>0.1111529403149629</v>
+        <v>0.1195245604551629</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>9.572723</v>
       </c>
       <c r="O21">
-        <v>0.1752167954175812</v>
+        <v>0.148507647709716</v>
       </c>
       <c r="P21">
-        <v>0.1913777443174129</v>
+        <v>0.1648492996500403</v>
       </c>
       <c r="Q21">
-        <v>14.56917386077333</v>
+        <v>25.55372672152066</v>
       </c>
       <c r="R21">
-        <v>87.41504316464</v>
+        <v>153.322360329124</v>
       </c>
       <c r="S21">
-        <v>0.02542636573004503</v>
+        <v>0.02311087366307461</v>
       </c>
       <c r="T21">
-        <v>0.02127219899172562</v>
+        <v>0.0197035400820125</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.56584</v>
+        <v>8.008293999999999</v>
       </c>
       <c r="H22">
-        <v>9.131679999999999</v>
+        <v>16.016588</v>
       </c>
       <c r="I22">
-        <v>0.1451137470551739</v>
+        <v>0.1556207644487699</v>
       </c>
       <c r="J22">
-        <v>0.1111529403149629</v>
+        <v>0.1195245604551629</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.948958666666666</v>
+        <v>5.402826333333334</v>
       </c>
       <c r="N22">
-        <v>14.846876</v>
+        <v>16.208479</v>
       </c>
       <c r="O22">
-        <v>0.271753610198707</v>
+        <v>0.2514522867988899</v>
       </c>
       <c r="P22">
-        <v>0.2968185373211294</v>
+        <v>0.2791218769771553</v>
       </c>
       <c r="Q22">
-        <v>22.59615343861333</v>
+        <v>43.26742170827533</v>
       </c>
       <c r="R22">
-        <v>135.57692063168</v>
+        <v>259.604530249652</v>
       </c>
       <c r="S22">
-        <v>0.03943518465170548</v>
+        <v>0.03913119709403456</v>
       </c>
       <c r="T22">
-        <v>0.03299225316323007</v>
+        <v>0.03336191965911454</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.56584</v>
+        <v>8.008293999999999</v>
       </c>
       <c r="H23">
-        <v>9.131679999999999</v>
+        <v>16.016588</v>
       </c>
       <c r="I23">
-        <v>0.1451137470551739</v>
+        <v>0.1556207644487699</v>
       </c>
       <c r="J23">
-        <v>0.1111529403149629</v>
+        <v>0.1195245604551629</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.072439</v>
+        <v>2.8759645</v>
       </c>
       <c r="N23">
-        <v>4.144878</v>
+        <v>5.751929</v>
       </c>
       <c r="O23">
-        <v>0.1138002594282996</v>
+        <v>0.1338499158886085</v>
       </c>
       <c r="P23">
-        <v>0.08286434299946524</v>
+        <v>0.09905242920815284</v>
       </c>
       <c r="Q23">
-        <v>9.462424883760001</v>
+        <v>23.031569249563</v>
       </c>
       <c r="R23">
-        <v>37.84969953504</v>
+        <v>92.12627699825198</v>
       </c>
       <c r="S23">
-        <v>0.01651398206149143</v>
+        <v>0.02082982623198881</v>
       </c>
       <c r="T23">
-        <v>0.00921061537165817</v>
+        <v>0.01183919806312061</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.56584</v>
+        <v>8.008293999999999</v>
       </c>
       <c r="H24">
-        <v>9.131679999999999</v>
+        <v>16.016588</v>
       </c>
       <c r="I24">
-        <v>0.1451137470551739</v>
+        <v>0.1556207644487699</v>
       </c>
       <c r="J24">
-        <v>0.1111529403149629</v>
+        <v>0.1195245604551629</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.499473</v>
+        <v>2.422765</v>
       </c>
       <c r="N24">
-        <v>4.498419</v>
+        <v>7.268295</v>
       </c>
       <c r="O24">
-        <v>0.08233796816491613</v>
+        <v>0.1127576127827255</v>
       </c>
       <c r="P24">
-        <v>0.08993232972630591</v>
+        <v>0.1251653620813941</v>
       </c>
       <c r="Q24">
-        <v>6.846353802319999</v>
+        <v>19.40221441291</v>
       </c>
       <c r="R24">
-        <v>41.07812281392</v>
+        <v>116.41328647746</v>
       </c>
       <c r="S24">
-        <v>0.0119483710853206</v>
+        <v>0.01754742589866613</v>
       </c>
       <c r="T24">
-        <v>0.00999624287845364</v>
+        <v>0.01496033488698995</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.56584</v>
+        <v>8.008293999999999</v>
       </c>
       <c r="H25">
-        <v>9.131679999999999</v>
+        <v>16.016588</v>
       </c>
       <c r="I25">
-        <v>0.1451137470551739</v>
+        <v>0.1556207644487699</v>
       </c>
       <c r="J25">
-        <v>0.1111529403149629</v>
+        <v>0.1195245604551629</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.958308666666666</v>
+        <v>4.080066666666666</v>
       </c>
       <c r="N25">
-        <v>11.874926</v>
+        <v>12.2402</v>
       </c>
       <c r="O25">
-        <v>0.2173557596454965</v>
+        <v>0.1898898891670077</v>
       </c>
       <c r="P25">
-        <v>0.2374033544913186</v>
+        <v>0.2107852068399371</v>
       </c>
       <c r="Q25">
-        <v>18.07300404261333</v>
+        <v>32.67437340626666</v>
       </c>
       <c r="R25">
-        <v>108.43802425568</v>
+        <v>196.0462404376</v>
       </c>
       <c r="S25">
-        <v>0.03154130872618174</v>
+        <v>0.02955080971326192</v>
       </c>
       <c r="T25">
-        <v>0.0263880808923455</v>
+        <v>0.02519400919799407</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.185148666666666</v>
+        <v>18.944564</v>
       </c>
       <c r="H26">
-        <v>21.555446</v>
+        <v>56.833692</v>
       </c>
       <c r="I26">
-        <v>0.2283618887583635</v>
+        <v>0.3681392730872076</v>
       </c>
       <c r="J26">
-        <v>0.2623779198023151</v>
+        <v>0.4241241677281146</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.5411105</v>
+        <v>3.513957</v>
       </c>
       <c r="N26">
-        <v>5.082221000000001</v>
+        <v>7.027914</v>
       </c>
       <c r="O26">
-        <v>0.1395356071449997</v>
+        <v>0.1635426476530525</v>
       </c>
       <c r="P26">
-        <v>0.1016036911443679</v>
+        <v>0.1210258252433203</v>
       </c>
       <c r="Q26">
-        <v>18.25825672092767</v>
+        <v>66.570383279748</v>
       </c>
       <c r="R26">
-        <v>109.549540325566</v>
+        <v>399.422299678488</v>
       </c>
       <c r="S26">
-        <v>0.03186461479667713</v>
+        <v>0.06020647142575206</v>
       </c>
       <c r="T26">
-        <v>0.02665856512669614</v>
+        <v>0.05132997740493148</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.185148666666666</v>
+        <v>18.944564</v>
       </c>
       <c r="H27">
-        <v>21.555446</v>
+        <v>56.833692</v>
       </c>
       <c r="I27">
-        <v>0.2283618887583635</v>
+        <v>0.3681392730872076</v>
       </c>
       <c r="J27">
-        <v>0.2623779198023151</v>
+        <v>0.4241241677281146</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>9.572723</v>
       </c>
       <c r="O27">
-        <v>0.1752167954175812</v>
+        <v>0.148507647709716</v>
       </c>
       <c r="P27">
-        <v>0.1913777443174129</v>
+        <v>0.1648492996500403</v>
       </c>
       <c r="Q27">
-        <v>22.92714596660644</v>
+        <v>60.45035450925733</v>
       </c>
       <c r="R27">
-        <v>206.344313699458</v>
+        <v>544.053190583316</v>
       </c>
       <c r="S27">
-        <v>0.04001283834374662</v>
+        <v>0.05467149747574595</v>
       </c>
       <c r="T27">
-        <v>0.05021329445046212</v>
+        <v>0.06991657201463591</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.185148666666666</v>
+        <v>18.944564</v>
       </c>
       <c r="H28">
-        <v>21.555446</v>
+        <v>56.833692</v>
       </c>
       <c r="I28">
-        <v>0.2283618887583635</v>
+        <v>0.3681392730872076</v>
       </c>
       <c r="J28">
-        <v>0.2623779198023151</v>
+        <v>0.4241241677281146</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.948958666666666</v>
+        <v>5.402826333333334</v>
       </c>
       <c r="N28">
-        <v>14.846876</v>
+        <v>16.208479</v>
       </c>
       <c r="O28">
-        <v>0.271753610198707</v>
+        <v>0.2514522867988899</v>
       </c>
       <c r="P28">
-        <v>0.2968185373211294</v>
+        <v>0.2791218769771553</v>
       </c>
       <c r="Q28">
-        <v>35.55900376518844</v>
+        <v>102.3541892527187</v>
       </c>
       <c r="R28">
-        <v>320.0310338866959</v>
+        <v>921.187703274468</v>
       </c>
       <c r="S28">
-        <v>0.06205816770188079</v>
+        <v>0.09256946207825936</v>
       </c>
       <c r="T28">
-        <v>0.07787863038108375</v>
+        <v>0.1183823337676452</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.185148666666666</v>
+        <v>18.944564</v>
       </c>
       <c r="H29">
-        <v>21.555446</v>
+        <v>56.833692</v>
       </c>
       <c r="I29">
-        <v>0.2283618887583635</v>
+        <v>0.3681392730872076</v>
       </c>
       <c r="J29">
-        <v>0.2623779198023151</v>
+        <v>0.4241241677281146</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.072439</v>
+        <v>2.8759645</v>
       </c>
       <c r="N29">
-        <v>4.144878</v>
+        <v>5.751929</v>
       </c>
       <c r="O29">
-        <v>0.1138002594282996</v>
+        <v>0.1338499158886085</v>
       </c>
       <c r="P29">
-        <v>0.08286434299946524</v>
+        <v>0.09905242920815284</v>
       </c>
       <c r="Q29">
-        <v>14.890782317598</v>
+        <v>54.483893531978</v>
       </c>
       <c r="R29">
-        <v>89.34469390558799</v>
+        <v>326.903361191868</v>
       </c>
       <c r="S29">
-        <v>0.02598764218423825</v>
+        <v>0.04927541073801623</v>
       </c>
       <c r="T29">
-        <v>0.02174177394198522</v>
+        <v>0.04201052909935581</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.185148666666666</v>
+        <v>18.944564</v>
       </c>
       <c r="H30">
-        <v>21.555446</v>
+        <v>56.833692</v>
       </c>
       <c r="I30">
-        <v>0.2283618887583635</v>
+        <v>0.3681392730872076</v>
       </c>
       <c r="J30">
-        <v>0.2623779198023151</v>
+        <v>0.4241241677281146</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.499473</v>
+        <v>2.422765</v>
       </c>
       <c r="N30">
-        <v>4.498419</v>
+        <v>7.268295</v>
       </c>
       <c r="O30">
-        <v>0.08233796816491613</v>
+        <v>0.1127576127827255</v>
       </c>
       <c r="P30">
-        <v>0.08993232972630591</v>
+        <v>0.1251653620813941</v>
       </c>
       <c r="Q30">
-        <v>10.77393642665267</v>
+        <v>45.89822659946</v>
       </c>
       <c r="R30">
-        <v>96.96542783987398</v>
+        <v>413.08403939514</v>
       </c>
       <c r="S30">
-        <v>0.01880285392666625</v>
+        <v>0.04151050560488138</v>
       </c>
       <c r="T30">
-        <v>0.02359625759656405</v>
+        <v>0.05308565502115941</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.185148666666666</v>
+        <v>18.944564</v>
       </c>
       <c r="H31">
-        <v>21.555446</v>
+        <v>56.833692</v>
       </c>
       <c r="I31">
-        <v>0.2283618887583635</v>
+        <v>0.3681392730872076</v>
       </c>
       <c r="J31">
-        <v>0.2623779198023151</v>
+        <v>0.4241241677281146</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.958308666666666</v>
+        <v>4.080066666666666</v>
       </c>
       <c r="N31">
-        <v>11.874926</v>
+        <v>12.2402</v>
       </c>
       <c r="O31">
-        <v>0.2173557596454965</v>
+        <v>0.1898898891670077</v>
       </c>
       <c r="P31">
-        <v>0.2374033544913186</v>
+        <v>0.2107852068399371</v>
       </c>
       <c r="Q31">
-        <v>28.4410362385551</v>
+        <v>77.29508409093333</v>
       </c>
       <c r="R31">
-        <v>255.9693261469959</v>
+        <v>695.6557568183999</v>
       </c>
       <c r="S31">
-        <v>0.04963577180515446</v>
+        <v>0.06990592576455264</v>
       </c>
       <c r="T31">
-        <v>0.06228939830552376</v>
+        <v>0.0893991004203868</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.734553</v>
+        <v>1.077851333333333</v>
       </c>
       <c r="H32">
-        <v>14.203659</v>
+        <v>3.233554</v>
       </c>
       <c r="I32">
-        <v>0.1504758656591809</v>
+        <v>0.02094529102646072</v>
       </c>
       <c r="J32">
-        <v>0.1728902525144426</v>
+        <v>0.02413055268438158</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.5411105</v>
+        <v>3.513957</v>
       </c>
       <c r="N32">
-        <v>5.082221000000001</v>
+        <v>7.027914</v>
       </c>
       <c r="O32">
-        <v>0.1395356071449997</v>
+        <v>0.1635426476530525</v>
       </c>
       <c r="P32">
-        <v>0.1016036911443679</v>
+        <v>0.1210258252433203</v>
       </c>
       <c r="Q32">
-        <v>12.0310223411065</v>
+        <v>3.787523237726</v>
       </c>
       <c r="R32">
-        <v>72.18613404663901</v>
+        <v>22.725139426356</v>
       </c>
       <c r="S32">
-        <v>0.02099674127542322</v>
+        <v>0.003425448350331107</v>
       </c>
       <c r="T32">
-        <v>0.01756628781834919</v>
+        <v>0.002920420052204699</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.734553</v>
+        <v>1.077851333333333</v>
       </c>
       <c r="H33">
-        <v>14.203659</v>
+        <v>3.233554</v>
       </c>
       <c r="I33">
-        <v>0.1504758656591809</v>
+        <v>0.02094529102646072</v>
       </c>
       <c r="J33">
-        <v>0.1728902525144426</v>
+        <v>0.02413055268438158</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>9.572723</v>
       </c>
       <c r="O33">
-        <v>0.1752167954175812</v>
+        <v>0.148507647709716</v>
       </c>
       <c r="P33">
-        <v>0.1913777443174129</v>
+        <v>0.1648492996500403</v>
       </c>
       <c r="Q33">
-        <v>15.10752146593967</v>
+        <v>3.439324083060222</v>
       </c>
       <c r="R33">
-        <v>135.967693193457</v>
+        <v>30.953916747542</v>
       </c>
       <c r="S33">
-        <v>0.02636589896848814</v>
+        <v>0.003110535900935104</v>
       </c>
       <c r="T33">
-        <v>0.03308734654068195</v>
+        <v>0.003977904710188703</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.734553</v>
+        <v>1.077851333333333</v>
       </c>
       <c r="H34">
-        <v>14.203659</v>
+        <v>3.233554</v>
       </c>
       <c r="I34">
-        <v>0.1504758656591809</v>
+        <v>0.02094529102646072</v>
       </c>
       <c r="J34">
-        <v>0.1728902525144426</v>
+        <v>0.02413055268438158</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>4.948958666666666</v>
+        <v>5.402826333333334</v>
       </c>
       <c r="N34">
-        <v>14.846876</v>
+        <v>16.208479</v>
       </c>
       <c r="O34">
-        <v>0.271753610198707</v>
+        <v>0.2514522867988899</v>
       </c>
       <c r="P34">
-        <v>0.2968185373211294</v>
+        <v>0.2791218769771553</v>
       </c>
       <c r="Q34">
-        <v>23.43110710214266</v>
+        <v>5.823443567151777</v>
       </c>
       <c r="R34">
-        <v>210.879963919284</v>
+        <v>52.410992104366</v>
       </c>
       <c r="S34">
-        <v>0.04089235974065804</v>
+        <v>0.005266741326271815</v>
       </c>
       <c r="T34">
-        <v>0.05131703186841756</v>
+        <v>0.00673536515776072</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.734553</v>
+        <v>1.077851333333333</v>
       </c>
       <c r="H35">
-        <v>14.203659</v>
+        <v>3.233554</v>
       </c>
       <c r="I35">
-        <v>0.1504758656591809</v>
+        <v>0.02094529102646072</v>
       </c>
       <c r="J35">
-        <v>0.1728902525144426</v>
+        <v>0.02413055268438158</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.072439</v>
+        <v>2.8759645</v>
       </c>
       <c r="N35">
-        <v>4.144878</v>
+        <v>5.751929</v>
       </c>
       <c r="O35">
-        <v>0.1138002594282996</v>
+        <v>0.1338499158886085</v>
       </c>
       <c r="P35">
-        <v>0.08286434299946524</v>
+        <v>0.09905242920815284</v>
       </c>
       <c r="Q35">
-        <v>9.812072284767</v>
+        <v>3.099862170944333</v>
       </c>
       <c r="R35">
-        <v>58.872433708602</v>
+        <v>18.599173025666</v>
       </c>
       <c r="S35">
-        <v>0.01712419254971274</v>
+        <v>0.002803525442154195</v>
       </c>
       <c r="T35">
-        <v>0.01432643718562093</v>
+        <v>0.002390189861523309</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.734553</v>
+        <v>1.077851333333333</v>
       </c>
       <c r="H36">
-        <v>14.203659</v>
+        <v>3.233554</v>
       </c>
       <c r="I36">
-        <v>0.1504758656591809</v>
+        <v>0.02094529102646072</v>
       </c>
       <c r="J36">
-        <v>0.1728902525144426</v>
+        <v>0.02413055268438158</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.499473</v>
+        <v>2.422765</v>
       </c>
       <c r="N36">
-        <v>4.498419</v>
+        <v>7.268295</v>
       </c>
       <c r="O36">
-        <v>0.08233796816491613</v>
+        <v>0.1127576127827255</v>
       </c>
       <c r="P36">
-        <v>0.08993232972630591</v>
+        <v>0.1251653620813941</v>
       </c>
       <c r="Q36">
-        <v>7.099334390569</v>
+        <v>2.611380485603333</v>
       </c>
       <c r="R36">
-        <v>63.89400951512101</v>
+        <v>23.50242437043</v>
       </c>
       <c r="S36">
-        <v>0.01238987703623384</v>
+        <v>0.002361741015183153</v>
       </c>
       <c r="T36">
-        <v>0.01554842319559314</v>
+        <v>0.003020309363964778</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.734553</v>
+        <v>1.077851333333333</v>
       </c>
       <c r="H37">
-        <v>14.203659</v>
+        <v>3.233554</v>
       </c>
       <c r="I37">
-        <v>0.1504758656591809</v>
+        <v>0.02094529102646072</v>
       </c>
       <c r="J37">
-        <v>0.1728902525144426</v>
+        <v>0.02413055268438158</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.958308666666666</v>
+        <v>4.080066666666666</v>
       </c>
       <c r="N37">
-        <v>11.874926</v>
+        <v>12.2402</v>
       </c>
       <c r="O37">
-        <v>0.2173557596454965</v>
+        <v>0.1898898891670077</v>
       </c>
       <c r="P37">
-        <v>0.2374033544913186</v>
+        <v>0.2107852068399371</v>
       </c>
       <c r="Q37">
-        <v>18.74082217269266</v>
+        <v>4.397705296755555</v>
       </c>
       <c r="R37">
-        <v>168.667399554234</v>
+        <v>39.5793476708</v>
       </c>
       <c r="S37">
-        <v>0.03270679608866495</v>
+        <v>0.003977298991585347</v>
       </c>
       <c r="T37">
-        <v>0.04104472590577979</v>
+        <v>0.00508636353873937</v>
       </c>
     </row>
   </sheetData>
